--- a/DataCamp.xlsx
+++ b/DataCamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbi_\PycharmProjects\sumLinkedInLearningHours\Online_Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA488F1E-0280-4D21-A405-D3309A40C1D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE8095-8C9C-43E6-8B04-E4E7D1E7CC6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{02681402-B2D2-4CDC-BADB-9CCB319EF8D7}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,10 +453,6 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <f>SUM(D2:D3)</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
